--- a/mathTransformed/HMPSTT_(2018-09-03)_49_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-03)_49_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>S S High School SomenahalliHosadurga</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S R D H S RenukapuraChallakere</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -552,7 +568,8 @@
           <t>ANITHA H T</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Govt. Junior College for Girls (High School Section) Chitradurga</t>
         </is>
@@ -578,6 +595,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>S C K H S MudhureHosadurga</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -605,6 +627,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S ThippareddyhallyChallakere</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -629,6 +656,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S PilaliHiriyur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -656,6 +688,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. High School Kodagavallihatty</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Holalkere Chitradurga</t>
         </is>
       </c>
@@ -683,6 +720,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>S M H School HanumanthanahallyChallakere</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -707,6 +749,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Maharani Composit P U College</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>K B Extn. Chitradurga</t>
         </is>
       </c>
@@ -731,6 +778,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S Vaddarasiddavvanahally</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -758,6 +810,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G J C Hiriyur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -785,6 +842,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S Kurubarahally</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -809,6 +871,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>S V S R H SChowlurChallakere</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -836,6 +903,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S V R High School KondapuraHosadurga</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -863,6 +935,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. High School Ghatti HosahalliHolalkere</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -890,6 +967,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>N S C B H S AdanurHolalkere</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -917,6 +999,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S GoolihattiHosadurga</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -944,6 +1031,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S B G KereMolakalmuru</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -971,6 +1063,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Bapuji High School Challakere</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -995,6 +1092,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>S M R H S BalenahalluChallakere</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1022,6 +1124,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Sri Siddarameshwara</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Residential High School Chitradurga</t>
         </is>
       </c>
@@ -1049,6 +1156,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>S P P R H SNannivalaChallakere</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1076,6 +1188,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S J R High School AralahalliHosadurga</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1103,6 +1220,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>S K R H School NeralakereHosadurga</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1130,6 +1252,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>S K H S Bahaddurghatta</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1157,6 +1284,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S NDevarahallyChallakere</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1184,6 +1316,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S Laxmisagar</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1211,6 +1348,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S MaskalHiriyur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1238,6 +1380,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S IkkanurHiriyur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1265,6 +1412,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. High School Basavana Shivanakere</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1292,6 +1444,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Govt. P U CollegeHigh School Section JavanagondanahallyHiriyur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1319,6 +1476,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S ObalapuraChallakere</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1346,6 +1508,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G J C YaraballyHiriyur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1373,6 +1540,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G J C (HS) Molakalmuru</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1400,6 +1572,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. Composite P U College (High School Section)AvinahattiHolalkere</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1427,6 +1604,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt. High School PagadalabandeChallakere</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1454,6 +1636,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S VasanthanagaraHiriyur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1481,6 +1668,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>S S M G H School Alagavadi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1508,6 +1700,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Sri M J R High School HoovinaholeHiriyur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1535,6 +1732,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>A H S DummiHolalkere</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1562,6 +1764,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S KaparahallyChallakere</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1589,6 +1796,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>R R Jr. CollegeMeerasabihallyChallakere</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1616,6 +1828,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>S P P H School KaluvehallyChallakere</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1640,6 +1857,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Boys Jr. College</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1667,6 +1889,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S G R Halli</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1691,6 +1918,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Govt. High School ThammenahalliMolakalmuru</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1718,6 +1950,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>S P S R H School Molakalmuru</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1742,6 +1979,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G J C Hosadurga</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1767,7 +2009,8 @@
           <t>VIJAYALAKSHMI C</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Sri Sharada High School Chitradurga</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-09-03)_49_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-03)_49_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
@@ -568,7 +567,6 @@
           <t>ANITHA H T</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Govt. Junior College for Girls (High School Section) Chitradurga</t>
@@ -2009,7 +2007,6 @@
           <t>VIJAYALAKSHMI C</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>Sri Sharada High School Chitradurga</t>

--- a/mathTransformed/HMPSTT_(2018-09-03)_49_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-09-03)_49_4.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Govt. Junior College for Girls (High School Section) Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Holalkere Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>K B Extn. Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Residential High School Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sri Sharada High School Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
